--- a/ChietKhau.xlsx
+++ b/ChietKhau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Works 2\IT\GITHUB\UpSSE_render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F93252-000C-4D71-A62A-3052756BC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E330696-57E5-40E5-9DA9-24F655374702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92C93928-AAF4-40C0-AF83-D5EF69BD1D49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92C93928-AAF4-40C0-AF83-D5EF69BD1D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>time</t>
   </si>
@@ -81,13 +81,595 @@
   </si>
   <si>
     <t>0316242421</t>
+  </si>
+  <si>
+    <t>Hộ kinh doanh Phạm Văn Tới</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ VẬN TẢI NTT VIỆT NAM</t>
+  </si>
+  <si>
+    <t> Công ty TNHH Việt Mỹ Nam Định</t>
+  </si>
+  <si>
+    <t> Công ty TNHH May Việt Thuận</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ GIAO HÀNG NHANH</t>
+  </si>
+  <si>
+    <t> CÔNG TY CỔ PHẦN THÀNH VINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN PHƯƠNG HIỂN</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại Dịch vụ và Vận tải Thái Ngân</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỆT BẢO MINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN MINH PHƯƠNG LOGISTICS</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN QUỐC TẾ S.A.M.N.E.C</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ THƯƠNG MẠI KHÁNH NHẬT</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ KỸ THUẬT TÀI NGUYÊN MÔI TRƯỜNG ETC</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ KHO VẬN DEVYT</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN GIAO HÀNG TIẾT KIỆM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH A SÓC</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ VẬN TẢI VIỆT STAR</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN QUỐC TẾ PHÚ LINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ PHÁT TRIỂN KHO VẬN VẠN LỢI</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VẬN TẢI VÀ CHUYỂN PHÁT PHƯƠNG ĐÔNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH DỆT  YUECHANG (MIỀN BẮC) VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ VẬN TẢI HẢI ANH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP KAMURI VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN VẬT LIỆU XÂY DỰNG XUÂN CHÂU</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI QUẾ LỄ</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN THƯƠNG MẠI HOA KIỀU</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH DẦU KHÍ TRẦN HỒNG QUÂN - CHI NHÁNH NAM ĐỊNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN HONLEI ĐỨC HÀ</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN LÂM SẢN NAM ĐỊNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI GIA PHAN</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần gương kính Doãn Khang</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH VÀ XÂY DỰNG THÀNH HƯNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG THƯƠNG MẠI VÀ VẬN TẢI PHÚ THÀNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI DU LỊCH THANH TUẤN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI VÀ THƯƠNG MẠI HÂN HUY</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP ĐẦU TƯ VÀ PHÁT TRIỂN QUANG HƯNG</t>
+  </si>
+  <si>
+    <t>Công ty Cổ Phần văn phòng phẩm Hồng Hà</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Vận Tải Việt Bắc</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BEST FREIGHT (VIET NAM)</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DƯỢC PHẨM CỬU LONG</t>
+  </si>
+  <si>
+    <t>CÔNG TY LIÊN DOANH TNHH NIPPON EXPRESS (VIỆT NAM)</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại và Vận Tải Phương Anh</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI VÀ THƯƠNG MẠI DỊCH VỤ TÂN THÀNH AN</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần tiếp vận Hòa Phát</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI, DỊCH VỤ VẬN TẢI VÀ ĐẦU TƯ XÂY DỰNG THÁI DƯƠNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HÒA PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VẬN TẢI VÀ XÂY DỰNG PLA</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại dịch vụ WIND EXPRESS</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Phương Ngân</t>
+  </si>
+  <si>
+    <t>Công ty TNHH xây dựng và vận tải Hợp Thành</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương Mại và Dịch Vụ Thúy Tấn</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần vận tải quốc tế Hòa Phát</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại và vận tải Tân Việt Hùng</t>
+  </si>
+  <si>
+    <t>Công ty TNHH dịch vụ vận tải 379</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại xây dựng Thành Phát</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần Minh Phương Executives</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Sài Gòn Sân Bay</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Đầu tư Thương mại và Dịch vụ Tấn Sang</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại Dịch vụ Minh Phương</t>
+  </si>
+  <si>
+    <t>Chi nhánh Công ty CP kho vận JUPITER Việt Nam tại Hà Nội</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Kinh doanh Dịch vụ Thương mại Nam Hưng</t>
+  </si>
+  <si>
+    <t>Công ty TNHH tư vấn thiết kế và đầu tư dự án - DEVYT</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dịch vụ Tổng hợp Toàn Phương</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Vận tải &amp; Xây dựng Tây Trường Sơn</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN DEVYT TẠI HẢI PHÒNG</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Vận tải Xuất nhập khẩu Mạnh Dũng</t>
+  </si>
+  <si>
+    <t>Chi nhánh Công ty Cổ phần giao nhận hàng hóa Jupiter - Pacific tại Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Vận tải Cơ giới Trường Sơn</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Quản lý chuỗi cung ứng Jupiter Hải Phòng Việt Nam</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thủy Sản Phong Thành</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Quản lí chuỗi cung ứng Jupiter Việt Nam</t>
+  </si>
+  <si>
+    <t>Công ty TNHH NUMBER ONE Hậu Giang</t>
+  </si>
+  <si>
+    <t>Công ty TNHH NUMBER ONE Hà Nam</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Bưu chính Thành Phố</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Sản xuất Thương mại Dịch vụ NUMBER ONE</t>
+  </si>
+  <si>
+    <t>Chi nhánh Thành phố Hồ Chí Minh - Công ty Cổ phần tiếp vận Hòa Phát</t>
+  </si>
+  <si>
+    <t>Công ty TNHH MTV chuyển phát nhanh Thuận Phong - Chi nhánh Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Văn phòng phẩm Hải Phòng</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Logistic BAF Việt Nam</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần dịch vụ Logistics Thành Thành Công</t>
+  </si>
+  <si>
+    <t>Công ty TNHH vận tải và xây dựng Quang Minh</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Bao bì Hoàng Hải Việt Nam</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Giải pháp Bao bì thông minh Việt Nam</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI THƯƠNG MẠI DỊCH VỤ THÀNH AN</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MẠNH DŨNG 68</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ ĐẦU TƯ ĐẠT PHÁT</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Thương mại và đầu tư Trung Hải</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG THƯƠNG MẠI TRƯỜNG LINH</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬN TẢI HÙNG HẰNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ CÔNG NGHIỆP TÂN PHÁT</t>
+  </si>
+  <si>
+    <t>Công ty CP Đầu tư và xây dựng Sông Đà Thuận Phát</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần giao nhận vận tải Mỹ Á</t>
+  </si>
+  <si>
+    <t>Công ty TNHH đầu tư thương mại dịch vụ Minh Tuấn</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TÍN ĐẠI DŨNG</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Dầu khí Hồng Hà</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BÊ TÔNG TUẤN HÙNG</t>
+  </si>
+  <si>
+    <t>0108790762</t>
+  </si>
+  <si>
+    <t>0106860975</t>
+  </si>
+  <si>
+    <t> 0601155470</t>
+  </si>
+  <si>
+    <t> 0601070996</t>
+  </si>
+  <si>
+    <t>0311907295</t>
+  </si>
+  <si>
+    <t> 0600409066</t>
+  </si>
+  <si>
+    <t>0600808624</t>
+  </si>
+  <si>
+    <t>0600802559</t>
+  </si>
+  <si>
+    <t>0601121915</t>
+  </si>
+  <si>
+    <t>0313149625</t>
+  </si>
+  <si>
+    <t>0200591141</t>
+  </si>
+  <si>
+    <t>0107329703</t>
+  </si>
+  <si>
+    <t>0600682259</t>
+  </si>
+  <si>
+    <t>0104191408</t>
+  </si>
+  <si>
+    <t>0106181807</t>
+  </si>
+  <si>
+    <t>0108096201</t>
+  </si>
+  <si>
+    <t>0106631904</t>
+  </si>
+  <si>
+    <t>0103242836-001</t>
+  </si>
+  <si>
+    <t>0314094249</t>
+  </si>
+  <si>
+    <t>0601129840</t>
+  </si>
+  <si>
+    <t>0104076885</t>
+  </si>
+  <si>
+    <t>0700760197</t>
+  </si>
+  <si>
+    <t>0600328554</t>
+  </si>
+  <si>
+    <t>0600387302</t>
+  </si>
+  <si>
+    <t>0601050735</t>
+  </si>
+  <si>
+    <t>0108469573-003</t>
+  </si>
+  <si>
+    <t>0600604349</t>
+  </si>
+  <si>
+    <t>0600160460</t>
+  </si>
+  <si>
+    <t>0105287423</t>
+  </si>
+  <si>
+    <t>0600989392</t>
+  </si>
+  <si>
+    <t>0601007401</t>
+  </si>
+  <si>
+    <t>0700466325</t>
+  </si>
+  <si>
+    <t>0700485688</t>
+  </si>
+  <si>
+    <t>0601181110</t>
+  </si>
+  <si>
+    <t>0700225986</t>
+  </si>
+  <si>
+    <t>0100100216</t>
+  </si>
+  <si>
+    <t>0109412107</t>
+  </si>
+  <si>
+    <t>0316589695</t>
+  </si>
+  <si>
+    <t>0302065148</t>
+  </si>
+  <si>
+    <t>0101322282</t>
+  </si>
+  <si>
+    <t>0109014459</t>
+  </si>
+  <si>
+    <t>0104517191</t>
+  </si>
+  <si>
+    <t>0106845046</t>
+  </si>
+  <si>
+    <t>0600321982</t>
+  </si>
+  <si>
+    <t>0601268717</t>
+  </si>
+  <si>
+    <t>0700246369</t>
+  </si>
+  <si>
+    <t>0700872729</t>
+  </si>
+  <si>
+    <t>0600476802</t>
+  </si>
+  <si>
+    <t>0106433268</t>
+  </si>
+  <si>
+    <t>0102139931</t>
+  </si>
+  <si>
+    <t>0700872084</t>
+  </si>
+  <si>
+    <t>0700880078</t>
+  </si>
+  <si>
+    <t>0314420421</t>
+  </si>
+  <si>
+    <t>0303709236</t>
+  </si>
+  <si>
+    <t>0107344211</t>
+  </si>
+  <si>
+    <t>0301447017</t>
+  </si>
+  <si>
+    <t>0306355377-001</t>
+  </si>
+  <si>
+    <t>0101097735-007</t>
+  </si>
+  <si>
+    <t>0210572014</t>
+  </si>
+  <si>
+    <t>0300667958-001</t>
+  </si>
+  <si>
+    <t>0201910256</t>
+  </si>
+  <si>
+    <t>0106903957</t>
+  </si>
+  <si>
+    <t>0700619589</t>
+  </si>
+  <si>
+    <t>0102868451</t>
+  </si>
+  <si>
+    <t>0104517191-002</t>
+  </si>
+  <si>
+    <t>0313617136-007</t>
+  </si>
+  <si>
+    <t>0200729600</t>
+  </si>
+  <si>
+    <t>0318192737</t>
+  </si>
+  <si>
+    <t>0316884387</t>
+  </si>
+  <si>
+    <t>0700874324</t>
+  </si>
+  <si>
+    <t>0201654549</t>
+  </si>
+  <si>
+    <t>0107422036</t>
+  </si>
+  <si>
+    <t>0305548922</t>
+  </si>
+  <si>
+    <t>0700880335</t>
+  </si>
+  <si>
+    <t>0700882614</t>
+  </si>
+  <si>
+    <t>0106158332</t>
+  </si>
+  <si>
+    <t>0700639948</t>
+  </si>
+  <si>
+    <t>0700836544</t>
+  </si>
+  <si>
+    <t>0106632584</t>
+  </si>
+  <si>
+    <t>0700774175</t>
+  </si>
+  <si>
+    <t>0303659948</t>
+  </si>
+  <si>
+    <t>0700820960</t>
+  </si>
+  <si>
+    <t>0700634467</t>
+  </si>
+  <si>
+    <t>0312327177</t>
+  </si>
+  <si>
+    <t>0700787061</t>
+  </si>
+  <si>
+    <t>Doanh nghiệp tư nhân Trúc Mai NB</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Một thành viên sản xuất &amp; thương mại Đức Chiến</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Một thành viên chuyển phát nhanh Thuận Phong - Chi nhánh Hà Nội</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN BƯU CHÍNH THÀNH PHỐ (TP. HÀ NỘI)</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN SẢN XUẤT THƯƠNG MẠI DỊCH VỤ MÔI TRƯỜNG Á CHÂU</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Huy Hoàng</t>
+  </si>
+  <si>
+    <t>2700270679</t>
+  </si>
+  <si>
+    <t>0600993818</t>
+  </si>
+  <si>
+    <t>0104308705</t>
+  </si>
+  <si>
+    <t>0313617136-012</t>
+  </si>
+  <si>
+    <t>0102868451-001</t>
+  </si>
+  <si>
+    <t>0308295564</t>
+  </si>
+  <si>
+    <t>2700277339</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,69 +683,55 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -181,90 +749,95 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="6" xr:uid="{A74A2118-C360-41E8-B8E3-5D0840340C2E}"/>
+    <cellStyle name="Normal 13" xfId="7" xr:uid="{B478F62A-3A48-47E0-AF16-6123F2490D74}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A1ACA718-10C3-4CE6-8D3D-0BA2BF14F207}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{C77DE03D-34E3-421D-B39D-82554FF04114}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{FDB1DEB5-63CF-4B7B-AFE2-4019F2418F0D}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{3CC2C7AE-3D97-4D1D-913D-CB197A3B7862}"/>
+    <cellStyle name="Normal 7" xfId="5" xr:uid="{D44E0476-0D7F-44AD-8D3D-E626B1BC2E4F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -594,132 +1167,2482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51D7FA9-1380-4AFD-82BB-B0D023A2F633}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>250</v>
+      </c>
+      <c r="E4" s="2">
+        <v>250</v>
+      </c>
+      <c r="F4" s="2">
+        <v>250</v>
+      </c>
+      <c r="G4" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2">
+        <v>300</v>
+      </c>
+      <c r="E7" s="2">
+        <v>300</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500</v>
+      </c>
+      <c r="E8" s="2">
+        <v>500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>500</v>
+      </c>
+      <c r="G8" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="2">
+        <v>500</v>
+      </c>
+      <c r="F9" s="2">
+        <v>500</v>
+      </c>
+      <c r="G9" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2">
+        <v>300</v>
+      </c>
+      <c r="E10" s="2">
+        <v>300</v>
+      </c>
+      <c r="F10" s="2">
+        <v>300</v>
+      </c>
+      <c r="G10" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+      <c r="E12" s="2">
+        <v>500</v>
+      </c>
+      <c r="F12" s="2">
+        <v>500</v>
+      </c>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2">
+        <v>300</v>
+      </c>
+      <c r="E13" s="2">
+        <v>300</v>
+      </c>
+      <c r="F13" s="2">
+        <v>300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="2">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2">
+        <v>200</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="2">
+        <v>300</v>
+      </c>
+      <c r="E15" s="2">
+        <v>300</v>
+      </c>
+      <c r="F15" s="2">
+        <v>300</v>
+      </c>
+      <c r="G15" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="2">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2">
+        <v>150</v>
+      </c>
+      <c r="F16" s="2">
+        <v>150</v>
+      </c>
+      <c r="G16" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="2">
+        <v>300</v>
+      </c>
+      <c r="E17" s="2">
+        <v>300</v>
+      </c>
+      <c r="F17" s="2">
+        <v>300</v>
+      </c>
+      <c r="G17" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="2">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2">
+        <v>150</v>
+      </c>
+      <c r="F18" s="2">
+        <v>150</v>
+      </c>
+      <c r="G18" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="2">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2">
+        <v>200</v>
+      </c>
+      <c r="F19" s="2">
+        <v>200</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="2">
+        <v>150</v>
+      </c>
+      <c r="E20" s="2">
+        <v>150</v>
+      </c>
+      <c r="F20" s="2">
+        <v>150</v>
+      </c>
+      <c r="G20" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="2">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2">
+        <v>200</v>
+      </c>
+      <c r="F22" s="2">
+        <v>200</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="2">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2">
+        <v>200</v>
+      </c>
+      <c r="F23" s="2">
+        <v>200</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1201619962</v>
+      </c>
+      <c r="D24" s="2">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="2">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2">
+        <v>200</v>
+      </c>
+      <c r="F25" s="2">
+        <v>200</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2">
+        <v>200</v>
+      </c>
+      <c r="E26" s="2">
+        <v>200</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
-        <v>100</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2">
+        <v>300</v>
+      </c>
+      <c r="E27" s="2">
+        <v>300</v>
+      </c>
+      <c r="F27" s="2">
+        <v>300</v>
+      </c>
+      <c r="G27" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="2">
+        <v>300</v>
+      </c>
+      <c r="E28" s="2">
+        <v>300</v>
+      </c>
+      <c r="F28" s="2">
+        <v>300</v>
+      </c>
+      <c r="G28" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="2">
+        <v>500</v>
+      </c>
+      <c r="E29" s="2">
+        <v>500</v>
+      </c>
+      <c r="F29" s="2">
+        <v>500</v>
+      </c>
+      <c r="G29" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="2">
+        <v>500</v>
+      </c>
+      <c r="E30" s="2">
+        <v>500</v>
+      </c>
+      <c r="F30" s="2">
+        <v>500</v>
+      </c>
+      <c r="G30" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="2">
+        <v>200</v>
+      </c>
+      <c r="E31" s="2">
+        <v>200</v>
+      </c>
+      <c r="F31" s="2">
+        <v>200</v>
+      </c>
+      <c r="G31" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="2">
+        <v>200</v>
+      </c>
+      <c r="E32" s="2">
+        <v>200</v>
+      </c>
+      <c r="F32" s="2">
+        <v>200</v>
+      </c>
+      <c r="G32" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="2">
+        <v>200</v>
+      </c>
+      <c r="E33" s="2">
+        <v>200</v>
+      </c>
+      <c r="F33" s="2">
+        <v>200</v>
+      </c>
+      <c r="G33" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="2">
+        <v>300</v>
+      </c>
+      <c r="E34" s="2">
+        <v>300</v>
+      </c>
+      <c r="F34" s="2">
+        <v>300</v>
+      </c>
+      <c r="G34" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2">
+        <v>500</v>
+      </c>
+      <c r="E35" s="2">
+        <v>500</v>
+      </c>
+      <c r="F35" s="2">
+        <v>500</v>
+      </c>
+      <c r="G35" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="2">
+        <v>300</v>
+      </c>
+      <c r="E36" s="2">
+        <v>300</v>
+      </c>
+      <c r="F36" s="2">
+        <v>300</v>
+      </c>
+      <c r="G36" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2">
+        <v>300</v>
+      </c>
+      <c r="E37" s="2">
+        <v>300</v>
+      </c>
+      <c r="F37" s="2">
+        <v>300</v>
+      </c>
+      <c r="G37" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="2">
+        <v>500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>500</v>
+      </c>
+      <c r="F38" s="2">
+        <v>500</v>
+      </c>
+      <c r="G38" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="2">
+        <v>530</v>
+      </c>
+      <c r="E39" s="2">
+        <v>530</v>
+      </c>
+      <c r="F39" s="2">
+        <v>530</v>
+      </c>
+      <c r="G39" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="2">
+        <v>300</v>
+      </c>
+      <c r="E40" s="2">
+        <v>300</v>
+      </c>
+      <c r="F40" s="2">
+        <v>300</v>
+      </c>
+      <c r="G40" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="2">
+        <v>300</v>
+      </c>
+      <c r="E41" s="2">
+        <v>300</v>
+      </c>
+      <c r="F41" s="2">
+        <v>300</v>
+      </c>
+      <c r="G41" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="2">
+        <v>200</v>
+      </c>
+      <c r="E42" s="2">
+        <v>200</v>
+      </c>
+      <c r="F42" s="2">
+        <v>200</v>
+      </c>
+      <c r="G42" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="2">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2">
+        <v>100</v>
+      </c>
+      <c r="F43" s="2">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="2">
         <v>250</v>
       </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>200</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V27" s="1" t="s">
-        <v>0</v>
+      <c r="E44" s="2">
+        <v>250</v>
+      </c>
+      <c r="F44" s="2">
+        <v>250</v>
+      </c>
+      <c r="G44" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1500202535</v>
+      </c>
+      <c r="D45" s="2">
+        <v>250</v>
+      </c>
+      <c r="E45" s="2">
+        <v>250</v>
+      </c>
+      <c r="F45" s="2">
+        <v>250</v>
+      </c>
+      <c r="G45" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="2">
+        <v>150</v>
+      </c>
+      <c r="E46" s="2">
+        <v>150</v>
+      </c>
+      <c r="F46" s="2">
+        <v>150</v>
+      </c>
+      <c r="G46" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2">
+        <v>100</v>
+      </c>
+      <c r="F47" s="2">
+        <v>100</v>
+      </c>
+      <c r="G47" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2">
+        <v>300</v>
+      </c>
+      <c r="E48" s="2">
+        <v>300</v>
+      </c>
+      <c r="F48" s="2">
+        <v>300</v>
+      </c>
+      <c r="G48" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2">
+        <v>150</v>
+      </c>
+      <c r="E49" s="2">
+        <v>150</v>
+      </c>
+      <c r="F49" s="2">
+        <v>150</v>
+      </c>
+      <c r="G49" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="2">
+        <v>530</v>
+      </c>
+      <c r="E50" s="2">
+        <v>530</v>
+      </c>
+      <c r="F50" s="2">
+        <v>530</v>
+      </c>
+      <c r="G50" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="2">
+        <v>200</v>
+      </c>
+      <c r="E51" s="2">
+        <v>200</v>
+      </c>
+      <c r="F51" s="2">
+        <v>200</v>
+      </c>
+      <c r="G51" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="2">
+        <v>200</v>
+      </c>
+      <c r="E52" s="2">
+        <v>200</v>
+      </c>
+      <c r="F52" s="2">
+        <v>200</v>
+      </c>
+      <c r="G52" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2500655142</v>
+      </c>
+      <c r="D53" s="2">
+        <v>200</v>
+      </c>
+      <c r="E53" s="2">
+        <v>200</v>
+      </c>
+      <c r="F53" s="2">
+        <v>200</v>
+      </c>
+      <c r="G53" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="2">
+        <v>300</v>
+      </c>
+      <c r="E54" s="2">
+        <v>300</v>
+      </c>
+      <c r="F54" s="2">
+        <v>300</v>
+      </c>
+      <c r="G54" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="2">
+        <v>300</v>
+      </c>
+      <c r="E55" s="2">
+        <v>300</v>
+      </c>
+      <c r="F55" s="2">
+        <v>300</v>
+      </c>
+      <c r="G55" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="2">
+        <v>300</v>
+      </c>
+      <c r="E56" s="2">
+        <v>300</v>
+      </c>
+      <c r="F56" s="2">
+        <v>300</v>
+      </c>
+      <c r="G56" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="2">
+        <v>150</v>
+      </c>
+      <c r="E57" s="2">
+        <v>150</v>
+      </c>
+      <c r="F57" s="2">
+        <v>150</v>
+      </c>
+      <c r="G57" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="2">
+        <v>200</v>
+      </c>
+      <c r="E58" s="2">
+        <v>200</v>
+      </c>
+      <c r="F58" s="2">
+        <v>200</v>
+      </c>
+      <c r="G58" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="2">
+        <v>300</v>
+      </c>
+      <c r="E59" s="2">
+        <v>300</v>
+      </c>
+      <c r="F59" s="2">
+        <v>300</v>
+      </c>
+      <c r="G59" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="2">
+        <v>300</v>
+      </c>
+      <c r="E60" s="2">
+        <v>300</v>
+      </c>
+      <c r="F60" s="2">
+        <v>300</v>
+      </c>
+      <c r="G60" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="2">
+        <v>300</v>
+      </c>
+      <c r="E61" s="2">
+        <v>300</v>
+      </c>
+      <c r="F61" s="2">
+        <v>300</v>
+      </c>
+      <c r="G61" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="2">
+        <v>300</v>
+      </c>
+      <c r="E62" s="2">
+        <v>300</v>
+      </c>
+      <c r="F62" s="2">
+        <v>300</v>
+      </c>
+      <c r="G62" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="2">
+        <v>300</v>
+      </c>
+      <c r="E63" s="2">
+        <v>300</v>
+      </c>
+      <c r="F63" s="2">
+        <v>300</v>
+      </c>
+      <c r="G63" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="2">
+        <v>300</v>
+      </c>
+      <c r="E64" s="2">
+        <v>300</v>
+      </c>
+      <c r="F64" s="2">
+        <v>300</v>
+      </c>
+      <c r="G64" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="2">
+        <v>200</v>
+      </c>
+      <c r="E65" s="2">
+        <v>200</v>
+      </c>
+      <c r="F65" s="2">
+        <v>200</v>
+      </c>
+      <c r="G65" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2802498400</v>
+      </c>
+      <c r="D66" s="2">
+        <v>200</v>
+      </c>
+      <c r="E66" s="2">
+        <v>200</v>
+      </c>
+      <c r="F66" s="2">
+        <v>200</v>
+      </c>
+      <c r="G66" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2901876974</v>
+      </c>
+      <c r="D67" s="2">
+        <v>200</v>
+      </c>
+      <c r="E67" s="2">
+        <v>200</v>
+      </c>
+      <c r="F67" s="2">
+        <v>200</v>
+      </c>
+      <c r="G67" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2901337179</v>
+      </c>
+      <c r="D68" s="2">
+        <v>200</v>
+      </c>
+      <c r="E68" s="2">
+        <v>200</v>
+      </c>
+      <c r="F68" s="2">
+        <v>200</v>
+      </c>
+      <c r="G68" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="2">
+        <v>200</v>
+      </c>
+      <c r="E69" s="2">
+        <v>200</v>
+      </c>
+      <c r="F69" s="2">
+        <v>200</v>
+      </c>
+      <c r="G69" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="2">
+        <v>200</v>
+      </c>
+      <c r="E70" s="2">
+        <v>200</v>
+      </c>
+      <c r="F70" s="2">
+        <v>200</v>
+      </c>
+      <c r="G70" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="2">
+        <v>200</v>
+      </c>
+      <c r="E71" s="2">
+        <v>200</v>
+      </c>
+      <c r="F71" s="2">
+        <v>200</v>
+      </c>
+      <c r="G71" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2902037650</v>
+      </c>
+      <c r="D72" s="2">
+        <v>200</v>
+      </c>
+      <c r="E72" s="2">
+        <v>200</v>
+      </c>
+      <c r="F72" s="2">
+        <v>200</v>
+      </c>
+      <c r="G72" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="2">
+        <v>200</v>
+      </c>
+      <c r="E73" s="2">
+        <v>200</v>
+      </c>
+      <c r="F73" s="2">
+        <v>200</v>
+      </c>
+      <c r="G73" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="5">
+        <v>3002131839</v>
+      </c>
+      <c r="D74" s="2">
+        <v>200</v>
+      </c>
+      <c r="E74" s="2">
+        <v>200</v>
+      </c>
+      <c r="F74" s="2">
+        <v>200</v>
+      </c>
+      <c r="G74" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="2">
+        <v>200</v>
+      </c>
+      <c r="E75" s="2">
+        <v>200</v>
+      </c>
+      <c r="F75" s="2">
+        <v>200</v>
+      </c>
+      <c r="G75" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="5">
+        <v>6300227884</v>
+      </c>
+      <c r="D76" s="2">
+        <v>150</v>
+      </c>
+      <c r="E76" s="2">
+        <v>150</v>
+      </c>
+      <c r="F76" s="2">
+        <v>150</v>
+      </c>
+      <c r="G76" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="2">
+        <v>150</v>
+      </c>
+      <c r="E77" s="2">
+        <v>150</v>
+      </c>
+      <c r="F77" s="2">
+        <v>150</v>
+      </c>
+      <c r="G77" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="2">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2">
+        <v>100</v>
+      </c>
+      <c r="F78" s="2">
+        <v>100</v>
+      </c>
+      <c r="G78" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="5">
+        <v>3701760678</v>
+      </c>
+      <c r="D79" s="2">
+        <v>150</v>
+      </c>
+      <c r="E79" s="2">
+        <v>150</v>
+      </c>
+      <c r="F79" s="2">
+        <v>150</v>
+      </c>
+      <c r="G79" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="2">
+        <v>150</v>
+      </c>
+      <c r="E80" s="2">
+        <v>150</v>
+      </c>
+      <c r="F80" s="2">
+        <v>150</v>
+      </c>
+      <c r="G80" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="2">
+        <v>100</v>
+      </c>
+      <c r="E81" s="2">
+        <v>100</v>
+      </c>
+      <c r="F81" s="2">
+        <v>100</v>
+      </c>
+      <c r="G81" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="2">
+        <v>200</v>
+      </c>
+      <c r="E82" s="2">
+        <v>200</v>
+      </c>
+      <c r="F82" s="2">
+        <v>200</v>
+      </c>
+      <c r="G82" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="2">
+        <v>150</v>
+      </c>
+      <c r="E83" s="2">
+        <v>150</v>
+      </c>
+      <c r="F83" s="2">
+        <v>150</v>
+      </c>
+      <c r="G83" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="2">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2">
+        <v>100</v>
+      </c>
+      <c r="F84" s="2">
+        <v>100</v>
+      </c>
+      <c r="G84" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="2">
+        <v>300</v>
+      </c>
+      <c r="E85" s="2">
+        <v>300</v>
+      </c>
+      <c r="F85" s="2">
+        <v>300</v>
+      </c>
+      <c r="G85" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="2">
+        <v>200</v>
+      </c>
+      <c r="E86" s="2">
+        <v>200</v>
+      </c>
+      <c r="F86" s="2">
+        <v>200</v>
+      </c>
+      <c r="G86" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="2">
+        <v>200</v>
+      </c>
+      <c r="E87" s="2">
+        <v>200</v>
+      </c>
+      <c r="F87" s="2">
+        <v>200</v>
+      </c>
+      <c r="G87" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="2">
+        <v>300</v>
+      </c>
+      <c r="E88" s="2">
+        <v>300</v>
+      </c>
+      <c r="F88" s="2">
+        <v>300</v>
+      </c>
+      <c r="G88" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="2">
+        <v>300</v>
+      </c>
+      <c r="E89" s="2">
+        <v>300</v>
+      </c>
+      <c r="F89" s="2">
+        <v>300</v>
+      </c>
+      <c r="G89" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" s="2">
+        <v>300</v>
+      </c>
+      <c r="E90" s="2">
+        <v>300</v>
+      </c>
+      <c r="F90" s="2">
+        <v>300</v>
+      </c>
+      <c r="G90" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" s="2">
+        <v>200</v>
+      </c>
+      <c r="E91" s="2">
+        <v>200</v>
+      </c>
+      <c r="F91" s="2">
+        <v>200</v>
+      </c>
+      <c r="G91" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="2">
+        <v>300</v>
+      </c>
+      <c r="E92" s="2">
+        <v>300</v>
+      </c>
+      <c r="F92" s="2">
+        <v>300</v>
+      </c>
+      <c r="G92" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="2">
+        <v>580</v>
+      </c>
+      <c r="E93" s="2">
+        <v>580</v>
+      </c>
+      <c r="F93" s="2">
+        <v>580</v>
+      </c>
+      <c r="G93" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="2">
+        <v>300</v>
+      </c>
+      <c r="E94" s="2">
+        <v>300</v>
+      </c>
+      <c r="F94" s="2">
+        <v>300</v>
+      </c>
+      <c r="G94" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="2">
+        <v>300</v>
+      </c>
+      <c r="E95" s="2">
+        <v>300</v>
+      </c>
+      <c r="F95" s="2">
+        <v>300</v>
+      </c>
+      <c r="G95" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" s="2">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2">
+        <v>100</v>
+      </c>
+      <c r="F96" s="2">
+        <v>100</v>
+      </c>
+      <c r="G96" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="2">
+        <v>300</v>
+      </c>
+      <c r="E97" s="2">
+        <v>300</v>
+      </c>
+      <c r="F97" s="2">
+        <v>300</v>
+      </c>
+      <c r="G97" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" s="2">
+        <v>300</v>
+      </c>
+      <c r="E98" s="2">
+        <v>300</v>
+      </c>
+      <c r="F98" s="2">
+        <v>300</v>
+      </c>
+      <c r="G98" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="2">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2">
+        <v>100</v>
+      </c>
+      <c r="F99" s="2">
+        <v>100</v>
+      </c>
+      <c r="G99" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="2">
+        <v>500</v>
+      </c>
+      <c r="E100" s="2">
+        <v>500</v>
+      </c>
+      <c r="F100" s="2">
+        <v>500</v>
+      </c>
+      <c r="G100" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="14">
+        <v>300</v>
+      </c>
+      <c r="E101" s="14">
+        <v>300</v>
+      </c>
+      <c r="F101" s="14">
+        <v>300</v>
+      </c>
+      <c r="G101" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="14">
+        <v>300</v>
+      </c>
+      <c r="E102" s="14">
+        <v>300</v>
+      </c>
+      <c r="F102" s="14">
+        <v>300</v>
+      </c>
+      <c r="G102" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="14">
+        <v>200</v>
+      </c>
+      <c r="E103" s="14">
+        <v>200</v>
+      </c>
+      <c r="F103" s="14">
+        <v>200</v>
+      </c>
+      <c r="G103" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="15">
+        <v>80</v>
+      </c>
+      <c r="E104" s="15">
+        <v>80</v>
+      </c>
+      <c r="F104" s="15">
+        <v>80</v>
+      </c>
+      <c r="G104" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="16">
+        <v>100</v>
+      </c>
+      <c r="E105" s="16">
+        <v>100</v>
+      </c>
+      <c r="F105" s="16">
+        <v>100</v>
+      </c>
+      <c r="G105" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="17">
+        <v>150</v>
+      </c>
+      <c r="E106" s="17">
+        <v>150</v>
+      </c>
+      <c r="F106" s="17">
+        <v>150</v>
+      </c>
+      <c r="G106" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="17">
+        <v>200</v>
+      </c>
+      <c r="E107" s="17">
+        <v>200</v>
+      </c>
+      <c r="F107" s="17">
+        <v>200</v>
+      </c>
+      <c r="G107" s="17">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
